--- a/trpg-yoku-wakaru/checklist.xlsx
+++ b/trpg-yoku-wakaru/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/trpg-yoku-wakaru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F5C028A-01CF-F34F-B9D1-C372A89F8245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D105D-B6D8-DF46-92DF-CFA80CF69428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{E7846A65-9C0F-114E-BA1E-BE2F6D0139D4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Tabletop RPG Good To Know Book</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>802-1</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD9BD18-9FD9-EB45-9D40-66738B7C8B69}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +444,7 @@
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +463,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1993</v>
       </c>
@@ -476,6 +485,9 @@
       </c>
       <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/trpg-yoku-wakaru/checklist.xlsx
+++ b/trpg-yoku-wakaru/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/trpg-yoku-wakaru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D105D-B6D8-DF46-92DF-CFA80CF69428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857B66B-0124-3844-9DB6-EE82DA362895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{E7846A65-9C0F-114E-BA1E-BE2F6D0139D4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>802-1</t>
+  </si>
+  <si>
+    <t>テーブルトークRPG入門</t>
+  </si>
+  <si>
+    <t>Introduction to Tabletop RPG</t>
+  </si>
+  <si>
+    <t>trpg_introduction.jpg</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Adventure Planning Bureau</t>
   </si>
 </sst>
 </file>
@@ -115,9 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,16 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD9BD18-9FD9-EB45-9D40-66738B7C8B69}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -467,26 +485,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1993</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/trpg-yoku-wakaru/checklist.xlsx
+++ b/trpg-yoku-wakaru/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/trpg-yoku-wakaru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857B66B-0124-3844-9DB6-EE82DA362895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF558DF1-18E8-C545-A34A-017626EAA338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{E7846A65-9C0F-114E-BA1E-BE2F6D0139D4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Adventure Planning Bureau</t>
+  </si>
+  <si>
+    <t>ネットゲームがよくわかる本</t>
+  </si>
+  <si>
+    <t>Netgame Good To Know Book</t>
+  </si>
+  <si>
+    <t>netgame-yoku-wakaru.jpg</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD9BD18-9FD9-EB45-9D40-66738B7C8B69}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,6 +537,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1994</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
